--- a/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 12 - Mash Copper 1/99RP269_S12_Handler.xlsx
+++ b/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 12 - Mash Copper 1/99RP269_S12_Handler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/ProLeiT/Massafra/MassafraSQL/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 12 - Mash Copper 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70083112-3E73-0143-8475-ABC1C2E12649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5A64C7-07DB-E646-9AFE-CCE29C4E4876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9520" yWindow="-21140" windowWidth="51200" windowHeight="21140" activeTab="8" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
+    <workbookView xWindow="-9520" yWindow="-21600" windowWidth="51200" windowHeight="21600" firstSheet="1" activeTab="7" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="00 Value Source" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="112">
   <si>
     <r>
       <t xml:space="preserve">UPDATE </t>
@@ -485,6 +485,45 @@
   <si>
     <t>9RP255.2282:770VCM</t>
   </si>
+  <si>
+    <t>02: Dosing time WWT</t>
+  </si>
+  <si>
+    <t>005: Use steam dosing</t>
+  </si>
+  <si>
+    <t>99RP269.4535:749RUNT</t>
+  </si>
+  <si>
+    <t>99RP269.2779:751VCM</t>
+  </si>
+  <si>
+    <t>Boiling time</t>
+  </si>
+  <si>
+    <t>Tempo bollitura</t>
+  </si>
+  <si>
+    <t>Bollitura</t>
+  </si>
+  <si>
+    <t>Boiling</t>
+  </si>
+  <si>
+    <t>Time Rest Boiling temp MC</t>
+  </si>
+  <si>
+    <t>9RP255.2286:770VCM</t>
+  </si>
+  <si>
+    <t>99RP269.2780:749RUNT</t>
+  </si>
+  <si>
+    <t>99RP269.2781:751VCM</t>
+  </si>
+  <si>
+    <t>126 - Boiling</t>
+  </si>
 </sst>
 </file>
 
@@ -555,7 +594,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,6 +646,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -838,7 +889,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -875,6 +925,11 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2342,14 +2397,14 @@
     <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="str">
         <f>CONCATENATE(B2,C2,D2,E2)</f>
-        <v>-- Option: Massafra -  003: Top Heating jacket | Bergamo - 003: Use steam dosing</v>
+        <v>-- Option: Massafra -  005: Use steam dosing | Bergamo - 003: Use steam dosing</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>IF('01 Option Comparison'!$K$3="NULL","",IF(ISBLANK('01 Option Comparison'!$K$3),"",'01 Option Comparison'!$K$3))</f>
-        <v>003: Top Heating jacket</v>
+        <v>005: Use steam dosing</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>14</v>
@@ -2399,7 +2454,7 @@
     <row r="6" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="str">
         <f>CONCATENATE(D6,"N'",F6,"'")</f>
-        <v>WHERE _Name = N'99RP269.7036SUPPLOP'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="30"/>
@@ -2409,20 +2464,20 @@
       <c r="E6" s="36"/>
       <c r="F6" s="36" t="str">
         <f>IF('01 Option Comparison'!$L$3="NULL","",IF(ISBLANK('01 Option Comparison'!$L$3),"",'01 Option Comparison'!$L$3))</f>
-        <v>99RP269.7036SUPPLOP</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="str">
         <f>CONCATENATE(B7,C7,D7,E7)</f>
-        <v xml:space="preserve">-- Option: Massafra -  CIP active | Bergamo - </v>
+        <v xml:space="preserve">-- Option: Massafra -   | Bergamo - </v>
       </c>
       <c r="B7" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>IF('01 Option Comparison'!$K$4="NULL","",IF(ISBLANK('01 Option Comparison'!$K$4),"",'01 Option Comparison'!$K$4))</f>
-        <v>CIP active</v>
+        <v/>
       </c>
       <c r="D7" s="25" t="s">
         <v>14</v>
@@ -2472,7 +2527,7 @@
     <row r="11" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="str">
         <f>CONCATENATE(D11,"N'",F11,"'")</f>
-        <v>WHERE _Name = N'99RP269.7401SUPPLOP'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="30"/>
@@ -2482,7 +2537,7 @@
       <c r="E11" s="36"/>
       <c r="F11" s="36" t="str">
         <f>IF('01 Option Comparison'!$L$4="NULL","",IF(ISBLANK('01 Option Comparison'!$L$4),"",'01 Option Comparison'!$L$4))</f>
-        <v>99RP269.7401SUPPLOP</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -4873,14 +4928,14 @@
     <row r="7" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="str">
         <f>CONCATENATE(B7,C7,D7,E7)</f>
-        <v>-- Function: Massafra -   | Bergamo - 04: Dosing time WWT</v>
+        <v>-- Function: Massafra -  02: Dosing time WWT | Bergamo - 04: Dosing time WWT</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$4="NULL","",IF(ISBLANK('01 Function Comparison'!$K$4),"",'01 Function Comparison'!$K$4))</f>
-        <v/>
+        <v>02: Dosing time WWT</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>14</v>
@@ -4946,14 +5001,14 @@
     <row r="12" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="str">
         <f>CONCATENATE(B12,C12,D12,E12)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Delay time PID | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B12" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$5="NULL","",IF(ISBLANK('01 Function Comparison'!$K$5),"",'01 Function Comparison'!$K$5))</f>
-        <v>Delay time PID</v>
+        <v/>
       </c>
       <c r="D12" s="25" t="s">
         <v>14</v>
@@ -5003,7 +5058,7 @@
     <row r="16" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="str">
         <f>CONCATENATE(D16,"N'",F16,"'")</f>
-        <v>WHERE _Name = N'99RP269.1073742135SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="30"/>
@@ -5013,20 +5068,20 @@
       <c r="E16" s="36"/>
       <c r="F16" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$5="NULL","",IF(ISBLANK('01 Function Comparison'!$L$5),"",'01 Function Comparison'!$L$5))</f>
-        <v>99RP269.1073742135SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="str">
         <f>CONCATENATE(B17,C17,D17,E17)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Check time Sealing flow pump | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B17" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$6="NULL","",IF(ISBLANK('01 Function Comparison'!$K$6),"",'01 Function Comparison'!$K$6))</f>
-        <v>Check time Sealing flow pump</v>
+        <v/>
       </c>
       <c r="D17" s="25" t="s">
         <v>14</v>
@@ -5076,7 +5131,7 @@
     <row r="21" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="str">
         <f>CONCATENATE(D21,"N'",F21,"'")</f>
-        <v>WHERE _Name = N'99RP269.1073742380SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="30"/>
@@ -5086,20 +5141,20 @@
       <c r="E21" s="36"/>
       <c r="F21" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$6="NULL","",IF(ISBLANK('01 Function Comparison'!$L$6),"",'01 Function Comparison'!$L$6))</f>
-        <v>99RP269.1073742380SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="str">
         <f>CONCATENATE(B22,C22,D22,E22)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Tempo controllo flusso acqua tenuta agitatore | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B22" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$7="NULL","",IF(ISBLANK('01 Function Comparison'!$K$7),"",'01 Function Comparison'!$K$7))</f>
-        <v>Tempo controllo flusso acqua tenuta agitatore</v>
+        <v/>
       </c>
       <c r="D22" s="25" t="s">
         <v>14</v>
@@ -5149,7 +5204,7 @@
     <row r="26" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="str">
         <f>CONCATENATE(D26,"N'",F26,"'")</f>
-        <v>WHERE _Name = N'99RP269.1073742677SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="30"/>
@@ -5159,7 +5214,7 @@
       <c r="E26" s="36"/>
       <c r="F26" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$7="NULL","",IF(ISBLANK('01 Function Comparison'!$L$7),"",'01 Function Comparison'!$L$7))</f>
-        <v>99RP269.1073742677SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -7331,14 +7386,14 @@
     <row r="7" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="str">
         <f>CONCATENATE(B7,C7,D7,E7)</f>
-        <v>-- Operation: Massafra - 125 - Rest ( RunTime ) | Bergamo - Heat Up ( RunTime )</v>
+        <v>-- Operation: Massafra - 124 - Heat Up ( RunTime ) | Bergamo - Heat Up ( RunTime )</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$4="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$4),"",CONCATENATE('01 Operation Comparison'!$N$4," ( ",'01 Operation Comparison'!$O$4," )")))</f>
-        <v>125 - Rest ( RunTime )</v>
+        <v>124 - Heat Up ( RunTime )</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>14</v>
@@ -7388,7 +7443,7 @@
     <row r="11" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="str">
         <f>CONCATENATE(D11,"N'",F11,"'")</f>
-        <v>WHERE _Name = N'99RP269.2779:749RUNT'</v>
+        <v>WHERE _Name = N'99RP269.4535:749RUNT'</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="30"/>
@@ -7398,27 +7453,27 @@
       <c r="E11" s="36"/>
       <c r="F11" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$4="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$4),"",'01 Operation Comparison'!$P$4))</f>
-        <v>99RP269.2779:749RUNT</v>
+        <v>99RP269.4535:749RUNT</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="str">
         <f>CONCATENATE(B12,C12,D12,E12)</f>
-        <v>-- Operation: Massafra - 129 - Emptying ( RunTime ) | Bergamo - Heat Up ( RunTime )</v>
+        <v>-- Operation: Massafra - 125 - Rest ( Rest time ) | Bergamo - Rest ( Rest time )</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$5="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$5),"",CONCATENATE('01 Operation Comparison'!$N$5," ( ",'01 Operation Comparison'!$O$5," )")))</f>
-        <v>129 - Emptying ( RunTime )</v>
+        <v>125 - Rest ( Rest time )</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="34" t="str">
         <f>IF(ISBLANK('01 Operation Comparison'!$I$5),"",CONCATENATE('01 Operation Comparison'!$I$5," ( ",'01 Operation Comparison'!$K$5," )"))</f>
-        <v>Heat Up ( RunTime )</v>
+        <v>Rest ( Rest time )</v>
       </c>
       <c r="F12" s="42"/>
     </row>
@@ -7445,7 +7500,7 @@
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="str">
         <f t="shared" ref="A15" si="0">CONCATENATE(D15,E15)</f>
-        <v xml:space="preserve">  , _ValueCategoryKey = 82000000116</v>
+        <v xml:space="preserve">  , _ValueCategoryKey = 82000000115</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="26"/>
@@ -7454,14 +7509,14 @@
       </c>
       <c r="E15" s="35">
         <f>IF(ISBLANK('01 Operation Comparison'!$L$5),"",'01 Operation Comparison'!$L$5)</f>
-        <v>82000000116</v>
+        <v>82000000115</v>
       </c>
       <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="str">
         <f>CONCATENATE(D16,"N'",F16,"'")</f>
-        <v>WHERE _Name = N'99RP269.2783:749RUNT'</v>
+        <v>WHERE _Name = N'99RP269.2779:751VCM'</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="30"/>
@@ -7471,27 +7526,27 @@
       <c r="E16" s="36"/>
       <c r="F16" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$5="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$5),"",'01 Operation Comparison'!$P$5))</f>
-        <v>99RP269.2783:749RUNT</v>
+        <v>99RP269.2779:751VCM</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="str">
         <f>CONCATENATE(B17,C17,D17,E17)</f>
-        <v xml:space="preserve">-- Operation: Massafra -  | Bergamo - </v>
+        <v>-- Operation: Massafra - 124 - Heat Up ( RunTime ) | Bergamo - Heat Up ( RunTime )</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$6="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$6),"",CONCATENATE('01 Operation Comparison'!$N$6," ( ",'01 Operation Comparison'!$O$6," )")))</f>
-        <v/>
+        <v>124 - Heat Up ( RunTime )</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="34" t="str">
         <f>IF(ISBLANK('01 Operation Comparison'!$I$6),"",CONCATENATE('01 Operation Comparison'!$I$6," ( ",'01 Operation Comparison'!$K$6," )"))</f>
-        <v/>
+        <v>Heat Up ( RunTime )</v>
       </c>
       <c r="F17" s="42"/>
     </row>
@@ -7518,23 +7573,23 @@
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="40" t="str">
         <f t="shared" ref="A20" si="1">CONCATENATE(D20,E20)</f>
-        <v xml:space="preserve">  , _ValueCategoryKey = </v>
+        <v xml:space="preserve">  , _ValueCategoryKey = 82000000116</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="26"/>
       <c r="D20" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="35" t="str">
+      <c r="E20" s="35">
         <f>IF(ISBLANK('01 Operation Comparison'!$L$6),"",'01 Operation Comparison'!$L$6)</f>
-        <v/>
+        <v>82000000116</v>
       </c>
       <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="str">
         <f>CONCATENATE(D21,"N'",F21,"'")</f>
-        <v>WHERE _Name = N''</v>
+        <v>WHERE _Name = N'99RP269.2780:749RUNT'</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="30"/>
@@ -7544,27 +7599,27 @@
       <c r="E21" s="36"/>
       <c r="F21" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$6="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$6),"",'01 Operation Comparison'!$P$6))</f>
-        <v/>
+        <v>99RP269.2780:749RUNT</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="str">
         <f>CONCATENATE(B22,C22,D22,E22)</f>
-        <v xml:space="preserve">-- Operation: Massafra -  | Bergamo - </v>
+        <v>-- Operation: Massafra - 126 - Boiling ( Boiling time ) | Bergamo - Boiling ( Boiling time )</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$7="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$7),"",CONCATENATE('01 Operation Comparison'!$N$7," ( ",'01 Operation Comparison'!$O$7," )")))</f>
-        <v/>
+        <v>126 - Boiling ( Boiling time )</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="34" t="str">
         <f>IF(ISBLANK('01 Operation Comparison'!$I$7),"",CONCATENATE('01 Operation Comparison'!$I$7," ( ",'01 Operation Comparison'!$K$7," )"))</f>
-        <v/>
+        <v>Boiling ( Boiling time )</v>
       </c>
       <c r="F22" s="42"/>
     </row>
@@ -7591,23 +7646,23 @@
     <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="40" t="str">
         <f t="shared" ref="A25" si="2">CONCATENATE(D25,E25)</f>
-        <v xml:space="preserve">  , _ValueCategoryKey = </v>
+        <v xml:space="preserve">  , _ValueCategoryKey = 82000000117</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="26"/>
       <c r="D25" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="35" t="str">
+      <c r="E25" s="35">
         <f>IF(ISBLANK('01 Operation Comparison'!$L$7),"",'01 Operation Comparison'!$L$7)</f>
-        <v/>
+        <v>82000000117</v>
       </c>
       <c r="F25" s="35"/>
     </row>
     <row r="26" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="str">
         <f>CONCATENATE(D26,"N'",F26,"'")</f>
-        <v>WHERE _Name = N''</v>
+        <v>WHERE _Name = N'99RP269.2781:751VCM'</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="30"/>
@@ -7617,7 +7672,7 @@
       <c r="E26" s="36"/>
       <c r="F26" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$7="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$7),"",'01 Operation Comparison'!$P$7))</f>
-        <v/>
+        <v>99RP269.2781:751VCM</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -10066,10 +10121,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFBAC6D-9845-E54D-A460-C8FF9867E959}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10365,6 +10420,77 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>82000000117</v>
+      </c>
+      <c r="P5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R5" t="s">
+        <v>90</v>
+      </c>
+      <c r="S5" t="s">
+        <v>105</v>
+      </c>
+      <c r="T5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U5" t="s">
+        <v>107</v>
+      </c>
+      <c r="V5" t="s">
+        <v>108</v>
+      </c>
+      <c r="W5">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10375,8 +10501,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10399,28 +10525,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45"/>
+      <c r="F1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
-      <c r="N1" s="53" t="s">
+      <c r="K1" s="50"/>
+      <c r="L1" s="51"/>
+      <c r="N1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="55"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -10495,11 +10621,11 @@
       <c r="I3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>26</v>
+      <c r="J3" s="2">
+        <v>10</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>28</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>26</v>
@@ -10546,11 +10672,11 @@
       <c r="I4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>26</v>
+      <c r="J4" s="2">
+        <v>14</v>
+      </c>
+      <c r="K4" s="56" t="s">
+        <v>31</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>26</v>
@@ -10585,15 +10711,6 @@
         <f>'00 Value Source'!P3</f>
         <v>NULL</v>
       </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="N5" s="11">
         <f>'00 Value Source'!H3</f>
         <v>1</v>
@@ -10624,15 +10741,6 @@
         <f>'00 Value Source'!P4</f>
         <v>NULL</v>
       </c>
-      <c r="J6" s="2">
-        <v>2</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="N6" s="11">
         <f>'00 Value Source'!H4</f>
         <v>2</v>
@@ -10662,15 +10770,6 @@
       <c r="D7" s="13" t="str">
         <f>'00 Value Source'!P5</f>
         <v>NULL</v>
-      </c>
-      <c r="J7" s="2">
-        <v>11</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="N7" s="11">
         <f>'00 Value Source'!H5</f>
@@ -16275,8 +16374,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16299,28 +16398,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45"/>
+      <c r="F1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
-      <c r="N1" s="53" t="s">
+      <c r="K1" s="50"/>
+      <c r="L1" s="51"/>
+      <c r="N1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="55"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -16395,14 +16494,11 @@
       <c r="I3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="2">
-        <v>3</v>
-      </c>
-      <c r="K3" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>42</v>
+      <c r="J3" s="55">
+        <v>5</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>100</v>
       </c>
       <c r="N3" s="11">
         <f>'00 Option Source'!H1</f>
@@ -16433,15 +16529,6 @@
       <c r="D4" s="13" t="str">
         <f>'00 Option Source'!P2</f>
         <v>NULL</v>
-      </c>
-      <c r="J4" s="2">
-        <v>60</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="N4" s="11">
         <f>'00 Option Source'!H2</f>
@@ -22628,8 +22715,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22652,28 +22739,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45"/>
+      <c r="F1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
-      <c r="N1" s="53" t="s">
+      <c r="K1" s="50"/>
+      <c r="L1" s="51"/>
+      <c r="N1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="55"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -22799,11 +22886,11 @@
       <c r="I4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>26</v>
+      <c r="J4" s="55">
+        <v>2</v>
+      </c>
+      <c r="K4" s="56" t="s">
+        <v>99</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>26</v>
@@ -22838,15 +22925,6 @@
         <f>'00 Function Source'!P3</f>
         <v>NULL</v>
       </c>
-      <c r="J5" s="2">
-        <v>3</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="N5" s="11">
         <f>'00 Function Source'!H3</f>
         <v>3</v>
@@ -22877,15 +22955,6 @@
         <f>'00 Function Source'!P4</f>
         <v>NULL</v>
       </c>
-      <c r="J6" s="2">
-        <v>30</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="N6" s="11">
         <f>'00 Function Source'!H4</f>
         <v>30</v>
@@ -22915,15 +22984,6 @@
       <c r="D7" s="13" t="str">
         <f>'00 Function Source'!P5</f>
         <v>NULL</v>
-      </c>
-      <c r="J7" s="2">
-        <v>31</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="N7" s="11">
         <f>'00 Function Source'!H5</f>
@@ -29416,8 +29476,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:T263"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29444,32 +29504,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
-      <c r="H1" s="47" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
+      <c r="H1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50" t="s">
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="52"/>
-      <c r="R1" s="53" t="s">
+      <c r="O1" s="50"/>
+      <c r="P1" s="51"/>
+      <c r="R1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="54"/>
-      <c r="T1" s="55"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="54"/>
     </row>
     <row r="2" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -29635,14 +29695,14 @@
       <c r="M4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="N4" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>78</v>
+      <c r="P4" s="59" t="s">
+        <v>101</v>
       </c>
       <c r="R4" s="11" t="str">
         <f>'00 Operation Source'!C2</f>
@@ -29659,143 +29719,197 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
+        <f>'00 Operation Source'!W3</f>
+        <v>6</v>
+      </c>
+      <c r="B5" s="12" t="str">
+        <f>'00 Operation Source'!T3</f>
+        <v>Rest</v>
+      </c>
+      <c r="C5" s="12">
+        <f>'00 Operation Source'!M3</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="str">
+        <f>'00 Operation Source'!P3</f>
+        <v>Rest time</v>
+      </c>
+      <c r="E5" s="12">
+        <f>'00 Operation Source'!O3</f>
+        <v>82000000115</v>
+      </c>
+      <c r="F5" s="13" t="str">
+        <f>'00 Operation Source'!U3</f>
+        <v xml:space="preserve">Time Rest gelatization temp MC </v>
+      </c>
+      <c r="H5" s="2">
+        <v>6</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5" s="3">
+        <v>82000000115</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="P5" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="R5" s="11" t="str">
+        <f>'00 Operation Source'!C3</f>
+        <v>124 - Heat Up</v>
+      </c>
+      <c r="S5" s="12" t="str">
+        <f>'00 Operation Source'!I3</f>
+        <v>Heating time</v>
+      </c>
+      <c r="T5" s="13" t="str">
+        <f>'00 Operation Source'!G3</f>
+        <v>99RP269.2780:751VCM</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
         <f>'00 Operation Source'!W4</f>
         <v>9</v>
       </c>
-      <c r="B5" s="12" t="str">
+      <c r="B6" s="12" t="str">
         <f>'00 Operation Source'!T4</f>
         <v>Heat Up</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C6" s="12">
         <f>'00 Operation Source'!M4</f>
         <v>1</v>
       </c>
-      <c r="D5" s="12" t="str">
+      <c r="D6" s="12" t="str">
         <f>'00 Operation Source'!P4</f>
         <v>RunTime</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E6" s="12">
         <f>'00 Operation Source'!O4</f>
         <v>82000000116</v>
       </c>
-      <c r="F5" s="13" t="str">
+      <c r="F6" s="13" t="str">
         <f>'00 Operation Source'!U4</f>
         <v>Time heating up to Boiling temp MC</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H6" s="2">
         <v>9</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J6" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L6" s="3">
         <v>82000000116</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O5" s="3" t="s">
+      <c r="N6" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="R5" s="11" t="str">
+      <c r="P6" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="R6" s="11" t="str">
         <f>'00 Operation Source'!C4</f>
         <v>129 - Emptying</v>
       </c>
-      <c r="S5" s="12" t="str">
+      <c r="S6" s="12" t="str">
         <f>'00 Operation Source'!I4</f>
         <v>RunTime</v>
       </c>
-      <c r="T5" s="13" t="str">
+      <c r="T6" s="13" t="str">
         <f>'00 Operation Source'!G4</f>
         <v>99RP269.2783:749RUNT</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
-        <f>'00 Operation Source'!W5</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="12">
-        <f>'00 Operation Source'!T5</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="12">
-        <f>'00 Operation Source'!M5</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="12">
-        <f>'00 Operation Source'!P5</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="12">
-        <f>'00 Operation Source'!O5</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="13">
-        <f>'00 Operation Source'!U5</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="11">
-        <f>'00 Operation Source'!C5</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="12">
-        <f>'00 Operation Source'!I5</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="13">
-        <f>'00 Operation Source'!G5</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
-        <f>'00 Operation Source'!W6</f>
-        <v>0</v>
-      </c>
-      <c r="B7" s="12">
-        <f>'00 Operation Source'!T6</f>
-        <v>0</v>
+        <f>'00 Operation Source'!W5</f>
+        <v>10</v>
+      </c>
+      <c r="B7" s="12" t="str">
+        <f>'00 Operation Source'!T5</f>
+        <v>Boiling</v>
       </c>
       <c r="C7" s="12">
-        <f>'00 Operation Source'!M6</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="12">
-        <f>'00 Operation Source'!P6</f>
-        <v>0</v>
+        <f>'00 Operation Source'!M5</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="12" t="str">
+        <f>'00 Operation Source'!P5</f>
+        <v>Boiling time</v>
       </c>
       <c r="E7" s="12">
-        <f>'00 Operation Source'!O6</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="13">
-        <f>'00 Operation Source'!U6</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="11">
-        <f>'00 Operation Source'!C6</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="12">
-        <f>'00 Operation Source'!I6</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="13">
-        <f>'00 Operation Source'!G6</f>
-        <v>0</v>
+        <f>'00 Operation Source'!O5</f>
+        <v>82000000117</v>
+      </c>
+      <c r="F7" s="13" t="str">
+        <f>'00 Operation Source'!U5</f>
+        <v>Time Rest Boiling temp MC</v>
+      </c>
+      <c r="H7" s="2">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" s="3">
+        <v>82000000117</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N7" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="O7" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="P7" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="R7" s="11" t="str">
+        <f>'00 Operation Source'!C5</f>
+        <v>NULL</v>
+      </c>
+      <c r="S7" s="12" t="str">
+        <f>'00 Operation Source'!I5</f>
+        <v>NULL</v>
+      </c>
+      <c r="T7" s="13" t="str">
+        <f>'00 Operation Source'!G5</f>
+        <v>NULL</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -29824,15 +29938,15 @@
         <v>0</v>
       </c>
       <c r="R8" s="11">
-        <f>'00 Operation Source'!C7</f>
+        <f>'00 Operation Source'!C6</f>
         <v>0</v>
       </c>
       <c r="S8" s="12">
-        <f>'00 Operation Source'!I7</f>
+        <f>'00 Operation Source'!I6</f>
         <v>0</v>
       </c>
       <c r="T8" s="13">
-        <f>'00 Operation Source'!G7</f>
+        <f>'00 Operation Source'!G6</f>
         <v>0</v>
       </c>
     </row>
@@ -29862,15 +29976,15 @@
         <v>0</v>
       </c>
       <c r="R9" s="11">
-        <f>'00 Operation Source'!C8</f>
+        <f>'00 Operation Source'!C7</f>
         <v>0</v>
       </c>
       <c r="S9" s="12">
-        <f>'00 Operation Source'!I8</f>
+        <f>'00 Operation Source'!I7</f>
         <v>0</v>
       </c>
       <c r="T9" s="13">
-        <f>'00 Operation Source'!G8</f>
+        <f>'00 Operation Source'!G7</f>
         <v>0</v>
       </c>
     </row>
@@ -34622,7 +34736,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -34652,14 +34766,14 @@
     <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="str">
         <f>CONCATENATE(B2,C2,D2,E2)</f>
-        <v>-- Value: Massafra -   | Bergamo - 010: MES: Mean mashing T°C</v>
+        <v>-- Value: Massafra -  010: MES: Mean mashing T°C | Bergamo - 010: MES: Mean mashing T°C</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$3="NULL","",IF(ISBLANK('01 Value Comparison'!$K$3),"",'01 Value Comparison'!$K$3))</f>
-        <v/>
+        <v>010: MES: Mean mashing T°C</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>14</v>
@@ -34725,14 +34839,14 @@
     <row r="7" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="str">
         <f>CONCATENATE(B7,C7,D7,E7)</f>
-        <v>-- Value: Massafra -   | Bergamo - 014: MES: Volume Mash MC (mais)</v>
+        <v>-- Value: Massafra -  014: MES: Volume Mash MC (mais) | Bergamo - 014: MES: Volume Mash MC (mais)</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$4="NULL","",IF(ISBLANK('01 Value Comparison'!$K$4),"",'01 Value Comparison'!$K$4))</f>
-        <v/>
+        <v>014: MES: Volume Mash MC (mais)</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>14</v>
@@ -34798,14 +34912,14 @@
     <row r="12" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="str">
         <f>CONCATENATE(B12,C12,D12,E12)</f>
-        <v xml:space="preserve">-- Value: Massafra -  Raw material maize rice | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B12" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$5="NULL","",IF(ISBLANK('01 Value Comparison'!$K$5),"",'01 Value Comparison'!$K$5))</f>
-        <v>Raw material maize rice</v>
+        <v/>
       </c>
       <c r="D12" s="25" t="s">
         <v>14</v>
@@ -34855,7 +34969,7 @@
     <row r="16" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="str">
         <f>CONCATENATE(D16,"N'",F16,"'")</f>
-        <v>WHERE _Name = N'99RP269.536874005SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="30"/>
@@ -34865,20 +34979,20 @@
       <c r="E16" s="36"/>
       <c r="F16" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$5="NULL","",IF(ISBLANK('01 Value Comparison'!$L$5),"",'01 Value Comparison'!$L$5))</f>
-        <v>99RP269.536874005SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="str">
         <f>CONCATENATE(B17,C17,D17,E17)</f>
-        <v xml:space="preserve">-- Value: Massafra -  Extract maize rice start | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B17" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$6="NULL","",IF(ISBLANK('01 Value Comparison'!$K$6),"",'01 Value Comparison'!$K$6))</f>
-        <v>Extract maize rice start</v>
+        <v/>
       </c>
       <c r="D17" s="25" t="s">
         <v>14</v>
@@ -34928,7 +35042,7 @@
     <row r="21" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="str">
         <f>CONCATENATE(D21,"N'",F21,"'")</f>
-        <v>WHERE _Name = N'99RP269.536874006SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="30"/>
@@ -34938,20 +35052,20 @@
       <c r="E21" s="36"/>
       <c r="F21" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$6="NULL","",IF(ISBLANK('01 Value Comparison'!$L$6),"",'01 Value Comparison'!$L$6))</f>
-        <v>99RP269.536874006SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="str">
         <f>CONCATENATE(B22,C22,D22,E22)</f>
-        <v xml:space="preserve">-- Value: Massafra -  Batchnumber repair | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B22" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$7="NULL","",IF(ISBLANK('01 Value Comparison'!$K$7),"",'01 Value Comparison'!$K$7))</f>
-        <v>Batchnumber repair</v>
+        <v/>
       </c>
       <c r="D22" s="25" t="s">
         <v>14</v>
@@ -35001,7 +35115,7 @@
     <row r="26" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="str">
         <f>CONCATENATE(D26,"N'",F26,"'")</f>
-        <v>WHERE _Name = N'99RP269.536874488SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="30"/>
@@ -35011,7 +35125,7 @@
       <c r="E26" s="36"/>
       <c r="F26" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$7="NULL","",IF(ISBLANK('01 Value Comparison'!$L$7),"",'01 Value Comparison'!$L$7))</f>
-        <v>99RP269.536874488SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">

--- a/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 12 - Mash Copper 1/99RP269_S12_Handler.xlsx
+++ b/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 12 - Mash Copper 1/99RP269_S12_Handler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/ProLeiT/Massafra/MassafraSQL/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 12 - Mash Copper 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5A64C7-07DB-E646-9AFE-CCE29C4E4876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE16E65C-00F3-3643-81AB-087FA65DD6B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9520" yWindow="-21600" windowWidth="51200" windowHeight="21600" firstSheet="1" activeTab="7" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
+    <workbookView xWindow="1400" yWindow="460" windowWidth="30980" windowHeight="19540" firstSheet="1" activeTab="7" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="00 Value Source" sheetId="2" r:id="rId1"/>
@@ -889,6 +889,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -925,11 +927,9 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10501,7 +10501,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="K3" sqref="K3:K4"/>
     </sheetView>
   </sheetViews>
@@ -10525,28 +10525,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="F1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="51"/>
-      <c r="N1" s="52" t="s">
+      <c r="K1" s="52"/>
+      <c r="L1" s="53"/>
+      <c r="N1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="53"/>
-      <c r="P1" s="54"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="56"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -10624,7 +10624,7 @@
       <c r="J3" s="2">
         <v>10</v>
       </c>
-      <c r="K3" s="56" t="s">
+      <c r="K3" s="44" t="s">
         <v>28</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -10675,7 +10675,7 @@
       <c r="J4" s="2">
         <v>14</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="44" t="s">
         <v>31</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -16398,28 +16398,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="F1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="51"/>
-      <c r="N1" s="52" t="s">
+      <c r="K1" s="52"/>
+      <c r="L1" s="53"/>
+      <c r="N1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="53"/>
-      <c r="P1" s="54"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="56"/>
     </row>
     <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -16494,10 +16494,10 @@
       <c r="I3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="55">
+      <c r="J3" s="43">
         <v>5</v>
       </c>
-      <c r="K3" s="56" t="s">
+      <c r="K3" s="44" t="s">
         <v>100</v>
       </c>
       <c r="N3" s="11">
@@ -22715,7 +22715,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -22739,28 +22739,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="F1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="51"/>
-      <c r="N1" s="52" t="s">
+      <c r="K1" s="52"/>
+      <c r="L1" s="53"/>
+      <c r="N1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="53"/>
-      <c r="P1" s="54"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="56"/>
     </row>
     <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -22886,10 +22886,10 @@
       <c r="I4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="55">
+      <c r="J4" s="43">
         <v>2</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="44" t="s">
         <v>99</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -29476,8 +29476,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:T263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29504,32 +29504,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45"/>
-      <c r="H1" s="46" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
+      <c r="H1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="49" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="51"/>
-      <c r="R1" s="52" t="s">
+      <c r="O1" s="52"/>
+      <c r="P1" s="53"/>
+      <c r="R1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="53"/>
-      <c r="T1" s="54"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="56"/>
     </row>
     <row r="2" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
